--- a/杭州成交周报.xlsx
+++ b/杭州成交周报.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2545,6 +2545,50 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/杭州成交周报.xlsx
+++ b/杭州成交周报.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,6 +2589,94 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
